--- a/Mifos Automation Excels/Client/3023-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3023-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -539,7 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -575,7 +575,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F11" sqref="F11:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +664,7 @@
         <v>100</v>
       </c>
       <c r="F4" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -698,7 +698,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="O14" sqref="O14:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,13 +869,13 @@
         <v>38.32</v>
       </c>
       <c r="I4" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J4" s="6">
         <v>0</v>
       </c>
       <c r="K4" s="6">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
       <c r="L4" s="6">
         <v>0</v>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -915,13 +915,13 @@
         <v>42.43</v>
       </c>
       <c r="I5" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J5" s="6">
         <v>0</v>
       </c>
       <c r="K5" s="6">
-        <v>887.72</v>
+        <v>987.72</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6">
-        <v>887.72</v>
+        <v>987.72</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1087,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>

--- a/Mifos Automation Excels/Client/3023-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3023-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -575,7 +575,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14:O15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/3023-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3023-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -572,7 +572,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -589,7 +589,7 @@
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -609,7 +609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>5000</v>
       </c>
@@ -626,8 +626,9 @@
       <c r="F2" s="6">
         <v>849.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>179.66</v>
       </c>
@@ -647,12 +648,12 @@
         <v>38.32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B4" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C4" s="6">
         <v>0</v>
@@ -661,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>0</v>
       </c>
@@ -697,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +798,6 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -823,24 +823,21 @@
         <v>50.96</v>
       </c>
       <c r="I3" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J3" s="6">
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <v>987.72</v>
+        <v>937.72</v>
       </c>
       <c r="L3" s="6">
-        <v>987.72</v>
+        <v>937.72</v>
       </c>
       <c r="M3" s="6">
         <v>0</v>
       </c>
       <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="O3" s="6">
         <v>0</v>
       </c>
       <c r="P3" s="6">
@@ -886,9 +883,6 @@
       <c r="N4" s="6">
         <v>0</v>
       </c>
-      <c r="O4" s="6">
-        <v>0</v>
-      </c>
       <c r="P4" s="6">
         <v>887.72</v>
       </c>
@@ -915,13 +909,13 @@
         <v>42.43</v>
       </c>
       <c r="I5" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J5" s="6">
         <v>0</v>
       </c>
       <c r="K5" s="6">
-        <v>987.72</v>
+        <v>937.72</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -932,11 +926,8 @@
       <c r="N5" s="6">
         <v>0</v>
       </c>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
       <c r="P5" s="6">
-        <v>987.72</v>
+        <v>937.72</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -978,9 +969,6 @@
       <c r="N6" s="6">
         <v>0</v>
       </c>
-      <c r="O6" s="6">
-        <v>0</v>
-      </c>
       <c r="P6" s="6">
         <v>887.72</v>
       </c>
@@ -1024,9 +1012,6 @@
       <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="O7" s="6">
-        <v>0</v>
-      </c>
       <c r="P7" s="6">
         <v>887.72</v>
       </c>
@@ -1068,9 +1053,6 @@
         <v>0</v>
       </c>
       <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6">
         <v>0</v>
       </c>
       <c r="P8" s="6">
@@ -1087,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,7 +1122,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>63</v>
+        <v>6348</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -1152,7 +1134,7 @@
         <v>28</v>
       </c>
       <c r="E2" s="6">
-        <v>987.72</v>
+        <v>937.72</v>
       </c>
       <c r="F2" s="6">
         <v>836.76</v>
@@ -1161,7 +1143,7 @@
         <v>50.96</v>
       </c>
       <c r="H2" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I2" s="6">
         <v>0</v>
@@ -1174,7 +1156,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>59</v>
+        <v>691</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>

--- a/Mifos Automation Excels/Client/3023-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3023-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment1.xlsx
@@ -575,7 +575,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +699,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +797,7 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>6348</v>
+        <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>691</v>
+        <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>

--- a/Mifos Automation Excels/Client/3023-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3023-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -696,10 +696,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,12 +717,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -762,17 +763,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -797,9 +799,10 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O2" s="6"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -837,14 +840,15 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -880,14 +884,15 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -923,14 +928,15 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
         <v>937.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -966,14 +972,15 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1009,14 +1016,15 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1052,10 +1060,11 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>741.06</v>
       </c>
     </row>
@@ -1069,7 +1078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:L3"/>
     </sheetView>
   </sheetViews>
